--- a/Projects/CCRU/Tests/Data/test_case_data.xlsx
+++ b/Projects/CCRU/Tests/Data/test_case_data.xlsx
@@ -14,6 +14,9 @@
     <sheet name="store_areas" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="scif" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$Z$35</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t xml:space="preserve">product_fk</t>
   </si>
@@ -281,10 +284,25 @@
     <t xml:space="preserve">facings</t>
   </si>
   <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">200</t>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
   </si>
 </sst>
 </file>
@@ -396,6 +414,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1262,7 +1284,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -1529,13 +1551,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T51" activeCellId="0" sqref="T51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1646,7 +1668,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -1740,7 +1762,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -1834,7 +1856,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -1928,7 +1950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -2210,7 +2232,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>5</v>
       </c>
@@ -2304,7 +2326,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>5</v>
       </c>
@@ -2398,7 +2420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>5</v>
       </c>
@@ -2586,7 +2608,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>6</v>
       </c>
@@ -2671,7 +2693,7 @@
         <v>65</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y12" s="0" t="s">
         <v>86</v>
@@ -2680,7 +2702,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>7</v>
       </c>
@@ -2765,7 +2787,7 @@
         <v>65</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y13" s="0" t="s">
         <v>86</v>
@@ -2859,7 +2881,7 @@
         <v>65</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y14" s="0" t="s">
         <v>86</v>
@@ -2953,7 +2975,7 @@
         <v>65</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y15" s="0" t="s">
         <v>86</v>
@@ -2962,7 +2984,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>7</v>
       </c>
@@ -3047,7 +3069,7 @@
         <v>65</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y16" s="0" t="s">
         <v>86</v>
@@ -3056,7 +3078,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>7</v>
       </c>
@@ -3141,7 +3163,7 @@
         <v>65</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y17" s="0" t="s">
         <v>86</v>
@@ -3150,7 +3172,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>7</v>
       </c>
@@ -3235,7 +3257,7 @@
         <v>65</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y18" s="0" t="s">
         <v>86</v>
@@ -3244,7 +3266,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>7</v>
       </c>
@@ -3329,7 +3351,7 @@
         <v>65</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y19" s="0" t="s">
         <v>86</v>
@@ -3338,7 +3360,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>7</v>
       </c>
@@ -3423,7 +3445,7 @@
         <v>65</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y20" s="0" t="s">
         <v>86</v>
@@ -3432,7 +3454,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>7</v>
       </c>
@@ -3517,7 +3539,7 @@
         <v>65</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y21" s="0" t="s">
         <v>86</v>
@@ -3526,7 +3548,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>8</v>
       </c>
@@ -3611,7 +3633,7 @@
         <v>65</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y22" s="0" t="s">
         <v>86</v>
@@ -3620,7 +3642,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>9</v>
       </c>
@@ -3705,7 +3727,7 @@
         <v>65</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y23" s="0" t="s">
         <v>86</v>
@@ -3799,7 +3821,7 @@
         <v>65</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y24" s="0" t="s">
         <v>86</v>
@@ -3893,7 +3915,7 @@
         <v>65</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y25" s="0" t="s">
         <v>86</v>
@@ -3902,7 +3924,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>10</v>
       </c>
@@ -3987,7 +4009,7 @@
         <v>65</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y26" s="0" t="s">
         <v>86</v>
@@ -3996,7 +4018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>10</v>
       </c>
@@ -4081,7 +4103,7 @@
         <v>65</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y27" s="0" t="s">
         <v>86</v>
@@ -4090,7 +4112,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>10</v>
       </c>
@@ -4175,7 +4197,7 @@
         <v>65</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y28" s="0" t="s">
         <v>86</v>
@@ -4184,7 +4206,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>10</v>
       </c>
@@ -4269,7 +4291,7 @@
         <v>65</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y29" s="0" t="s">
         <v>86</v>
@@ -4278,7 +4300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>10</v>
       </c>
@@ -4363,7 +4385,7 @@
         <v>65</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y30" s="0" t="s">
         <v>86</v>
@@ -4372,7 +4394,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>11</v>
       </c>
@@ -4457,16 +4479,16 @@
         <v>66</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y31" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Z31" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>12</v>
       </c>
@@ -4551,16 +4573,16 @@
         <v>66</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y32" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Z32" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>13</v>
       </c>
@@ -4645,16 +4667,16 @@
         <v>66</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y33" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Z33" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>14</v>
       </c>
@@ -4739,16 +4761,16 @@
         <v>68</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y34" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Z34" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>15</v>
       </c>
@@ -4833,16 +4855,35 @@
         <v>68</v>
       </c>
       <c r="X35" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y35" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Z35" s="0" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z35">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Brand_21"/>
+        <filter val="Brand_12"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="16">
+      <filters>
+        <filter val="SubCat_32"/>
+        <filter val="SubCat_13"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="25">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Loc_1"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4850,5 +4891,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Tests/Data/test_case_data.xlsx
+++ b/Projects/CCRU/Tests/Data/test_case_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,10 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$Z$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$Z$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$Z$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$Z$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">scif!$A$1:$Z$35</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -83,7 +87,7 @@
     <t xml:space="preserve">SKU</t>
   </si>
   <si>
-    <t xml:space="preserve">Man_1</t>
+    <t xml:space="preserve">TCCC</t>
   </si>
   <si>
     <t xml:space="preserve">Brand_11</t>
@@ -426,28 +430,27 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.91902834008097"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7692307692308"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0890688259109"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1255060728745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7692307692308"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.2995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.9473684210526"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.59919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.6234817813765"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.33603238866397"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.2995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6518218623482"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3684210526316"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6518218623482"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5384615384615"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7408906882591"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7651821862348"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3967611336032"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.1093117408907"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.0526315789474"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.48582995951417"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.8542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,17 +1286,16 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9473684210526"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.3238866396761"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3967611336032"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="25.8218623481781"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1093117408907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,16 +1401,15 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.2995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9473684210526"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3967611336032"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1133603238866"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1446,7 +1447,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
@@ -1457,7 +1458,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
@@ -1468,7 +1469,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
@@ -1501,9 +1502,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.331983805668"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3522267206478"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.080971659919"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2226720647773"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,41 +1551,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.15789473684211"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.47773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.15384615384615"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.97570850202429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.2995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.9473684210526"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.0890688259109"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.1255060728745"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.2388663967611"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.9473684210526"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.59919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.91902834008097"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.33603238866397"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="8.2995951417004"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.919028340081"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="13.8906882591093"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="19.3238866396761"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.5101214574899"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3967611336032"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1133603238866"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6518218623482"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3684210526316"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.7408906882591"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.5384615384615"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.3967611336032"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1417004048583"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1093117408907"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.0526315789474"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.48582995951417"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.7651821862348"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.3967611336032"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="25.8218623481781"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.1093117408907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,7 +1667,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -1711,7 +1710,7 @@
       </c>
       <c r="M2" s="0" t="str">
         <f aca="false">VLOOKUP($D2,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N2" s="0" t="n">
         <f aca="false">VLOOKUP($D2,products!$A$2:$P$16,10,0)</f>
@@ -1762,7 +1761,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
@@ -1805,7 +1804,7 @@
       </c>
       <c r="M3" s="0" t="str">
         <f aca="false">VLOOKUP($D3,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N3" s="0" t="n">
         <f aca="false">VLOOKUP($D3,products!$A$2:$P$16,10,0)</f>
@@ -1856,7 +1855,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
@@ -1899,7 +1898,7 @@
       </c>
       <c r="M4" s="0" t="str">
         <f aca="false">VLOOKUP($D4,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N4" s="0" t="n">
         <f aca="false">VLOOKUP($D4,products!$A$2:$P$16,10,0)</f>
@@ -1950,7 +1949,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
@@ -1993,7 +1992,7 @@
       </c>
       <c r="M5" s="0" t="str">
         <f aca="false">VLOOKUP($D5,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N5" s="0" t="n">
         <f aca="false">VLOOKUP($D5,products!$A$2:$P$16,10,0)</f>
@@ -2087,7 +2086,7 @@
       </c>
       <c r="M6" s="0" t="str">
         <f aca="false">VLOOKUP($D6,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N6" s="0" t="n">
         <f aca="false">VLOOKUP($D6,products!$A$2:$P$16,10,0)</f>
@@ -2181,7 +2180,7 @@
       </c>
       <c r="M7" s="0" t="str">
         <f aca="false">VLOOKUP($D7,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N7" s="0" t="n">
         <f aca="false">VLOOKUP($D7,products!$A$2:$P$16,10,0)</f>
@@ -2232,7 +2231,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>5</v>
       </c>
@@ -2275,7 +2274,7 @@
       </c>
       <c r="M8" s="0" t="str">
         <f aca="false">VLOOKUP($D8,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N8" s="0" t="n">
         <f aca="false">VLOOKUP($D8,products!$A$2:$P$16,10,0)</f>
@@ -2326,7 +2325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>5</v>
       </c>
@@ -2369,7 +2368,7 @@
       </c>
       <c r="M9" s="0" t="str">
         <f aca="false">VLOOKUP($D9,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N9" s="0" t="n">
         <f aca="false">VLOOKUP($D9,products!$A$2:$P$16,10,0)</f>
@@ -2420,7 +2419,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>5</v>
       </c>
@@ -2463,7 +2462,7 @@
       </c>
       <c r="M10" s="0" t="str">
         <f aca="false">VLOOKUP($D10,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N10" s="0" t="n">
         <f aca="false">VLOOKUP($D10,products!$A$2:$P$16,10,0)</f>
@@ -2608,7 +2607,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>6</v>
       </c>
@@ -2651,7 +2650,7 @@
       </c>
       <c r="M12" s="0" t="str">
         <f aca="false">VLOOKUP($D12,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N12" s="0" t="n">
         <f aca="false">VLOOKUP($D12,products!$A$2:$P$16,10,0)</f>
@@ -2702,7 +2701,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>7</v>
       </c>
@@ -2745,7 +2744,7 @@
       </c>
       <c r="M13" s="0" t="str">
         <f aca="false">VLOOKUP($D13,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N13" s="0" t="n">
         <f aca="false">VLOOKUP($D13,products!$A$2:$P$16,10,0)</f>
@@ -2839,7 +2838,7 @@
       </c>
       <c r="M14" s="0" t="str">
         <f aca="false">VLOOKUP($D14,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N14" s="0" t="n">
         <f aca="false">VLOOKUP($D14,products!$A$2:$P$16,10,0)</f>
@@ -2933,7 +2932,7 @@
       </c>
       <c r="M15" s="0" t="str">
         <f aca="false">VLOOKUP($D15,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N15" s="0" t="n">
         <f aca="false">VLOOKUP($D15,products!$A$2:$P$16,10,0)</f>
@@ -2984,7 +2983,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>7</v>
       </c>
@@ -3027,7 +3026,7 @@
       </c>
       <c r="M16" s="0" t="str">
         <f aca="false">VLOOKUP($D16,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N16" s="0" t="n">
         <f aca="false">VLOOKUP($D16,products!$A$2:$P$16,10,0)</f>
@@ -3078,7 +3077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>7</v>
       </c>
@@ -3121,7 +3120,7 @@
       </c>
       <c r="M17" s="0" t="str">
         <f aca="false">VLOOKUP($D17,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N17" s="0" t="n">
         <f aca="false">VLOOKUP($D17,products!$A$2:$P$16,10,0)</f>
@@ -3172,7 +3171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>7</v>
       </c>
@@ -3215,7 +3214,7 @@
       </c>
       <c r="M18" s="0" t="str">
         <f aca="false">VLOOKUP($D18,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N18" s="0" t="n">
         <f aca="false">VLOOKUP($D18,products!$A$2:$P$16,10,0)</f>
@@ -3266,7 +3265,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>7</v>
       </c>
@@ -3309,7 +3308,7 @@
       </c>
       <c r="M19" s="0" t="str">
         <f aca="false">VLOOKUP($D19,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N19" s="0" t="n">
         <f aca="false">VLOOKUP($D19,products!$A$2:$P$16,10,0)</f>
@@ -3360,7 +3359,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>7</v>
       </c>
@@ -3403,7 +3402,7 @@
       </c>
       <c r="M20" s="0" t="str">
         <f aca="false">VLOOKUP($D20,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N20" s="0" t="n">
         <f aca="false">VLOOKUP($D20,products!$A$2:$P$16,10,0)</f>
@@ -3454,7 +3453,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>7</v>
       </c>
@@ -3497,7 +3496,7 @@
       </c>
       <c r="M21" s="0" t="str">
         <f aca="false">VLOOKUP($D21,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N21" s="0" t="n">
         <f aca="false">VLOOKUP($D21,products!$A$2:$P$16,10,0)</f>
@@ -3548,7 +3547,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>8</v>
       </c>
@@ -3591,7 +3590,7 @@
       </c>
       <c r="M22" s="0" t="str">
         <f aca="false">VLOOKUP($D22,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N22" s="0" t="n">
         <f aca="false">VLOOKUP($D22,products!$A$2:$P$16,10,0)</f>
@@ -3642,7 +3641,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>9</v>
       </c>
@@ -3685,7 +3684,7 @@
       </c>
       <c r="M23" s="0" t="str">
         <f aca="false">VLOOKUP($D23,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N23" s="0" t="n">
         <f aca="false">VLOOKUP($D23,products!$A$2:$P$16,10,0)</f>
@@ -3779,7 +3778,7 @@
       </c>
       <c r="M24" s="0" t="str">
         <f aca="false">VLOOKUP($D24,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N24" s="0" t="n">
         <f aca="false">VLOOKUP($D24,products!$A$2:$P$16,10,0)</f>
@@ -3873,7 +3872,7 @@
       </c>
       <c r="M25" s="0" t="str">
         <f aca="false">VLOOKUP($D25,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N25" s="0" t="n">
         <f aca="false">VLOOKUP($D25,products!$A$2:$P$16,10,0)</f>
@@ -3924,7 +3923,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>10</v>
       </c>
@@ -3967,7 +3966,7 @@
       </c>
       <c r="M26" s="0" t="str">
         <f aca="false">VLOOKUP($D26,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N26" s="0" t="n">
         <f aca="false">VLOOKUP($D26,products!$A$2:$P$16,10,0)</f>
@@ -4018,7 +4017,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>10</v>
       </c>
@@ -4061,7 +4060,7 @@
       </c>
       <c r="M27" s="0" t="str">
         <f aca="false">VLOOKUP($D27,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N27" s="0" t="n">
         <f aca="false">VLOOKUP($D27,products!$A$2:$P$16,10,0)</f>
@@ -4112,7 +4111,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>10</v>
       </c>
@@ -4155,7 +4154,7 @@
       </c>
       <c r="M28" s="0" t="str">
         <f aca="false">VLOOKUP($D28,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N28" s="0" t="n">
         <f aca="false">VLOOKUP($D28,products!$A$2:$P$16,10,0)</f>
@@ -4206,7 +4205,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>10</v>
       </c>
@@ -4249,7 +4248,7 @@
       </c>
       <c r="M29" s="0" t="str">
         <f aca="false">VLOOKUP($D29,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N29" s="0" t="n">
         <f aca="false">VLOOKUP($D29,products!$A$2:$P$16,10,0)</f>
@@ -4300,7 +4299,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>10</v>
       </c>
@@ -4343,7 +4342,7 @@
       </c>
       <c r="M30" s="0" t="str">
         <f aca="false">VLOOKUP($D30,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N30" s="0" t="n">
         <f aca="false">VLOOKUP($D30,products!$A$2:$P$16,10,0)</f>
@@ -4394,7 +4393,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>11</v>
       </c>
@@ -4437,7 +4436,7 @@
       </c>
       <c r="M31" s="0" t="str">
         <f aca="false">VLOOKUP($D31,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N31" s="0" t="n">
         <f aca="false">VLOOKUP($D31,products!$A$2:$P$16,10,0)</f>
@@ -4488,7 +4487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>12</v>
       </c>
@@ -4531,7 +4530,7 @@
       </c>
       <c r="M32" s="0" t="str">
         <f aca="false">VLOOKUP($D32,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N32" s="0" t="n">
         <f aca="false">VLOOKUP($D32,products!$A$2:$P$16,10,0)</f>
@@ -4582,7 +4581,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>13</v>
       </c>
@@ -4625,7 +4624,7 @@
       </c>
       <c r="M33" s="0" t="str">
         <f aca="false">VLOOKUP($D33,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N33" s="0" t="n">
         <f aca="false">VLOOKUP($D33,products!$A$2:$P$16,10,0)</f>
@@ -4676,7 +4675,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>14</v>
       </c>
@@ -4719,7 +4718,7 @@
       </c>
       <c r="M34" s="0" t="str">
         <f aca="false">VLOOKUP($D34,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N34" s="0" t="n">
         <f aca="false">VLOOKUP($D34,products!$A$2:$P$16,10,0)</f>
@@ -4770,7 +4769,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>15</v>
       </c>
@@ -4813,7 +4812,7 @@
       </c>
       <c r="M35" s="0" t="str">
         <f aca="false">VLOOKUP($D35,products!$A$2:$P$16,6,0)</f>
-        <v>Man_1</v>
+        <v>TCCC</v>
       </c>
       <c r="N35" s="0" t="n">
         <f aca="false">VLOOKUP($D35,products!$A$2:$P$16,10,0)</f>
@@ -4865,25 +4864,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z35">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Brand_21"/>
-        <filter val="Brand_12"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="16">
-      <filters>
-        <filter val="SubCat_32"/>
-        <filter val="SubCat_13"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="25">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Loc_1"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z35"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Tests/Data/test_case_data.xlsx
+++ b/Projects/CCRU/Tests/Data/test_case_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$Z$35</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$Z$35</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">scif!$A$1:$Z$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$35</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -435,22 +436,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6518218623482"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3684210526316"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6518218623482"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5384615384615"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7408906882591"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.3967611336032"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1983805668016"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.1093117408907"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.0526315789474"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.48582995951417"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9676113360324"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6558704453441"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.5384615384615"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.9109311740891"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.2550607287449"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.9676113360324"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.82591093117409"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6558704453441"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,16 +1288,17 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3967611336032"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3967611336032"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="25.8218623481781"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5384615384615"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7651821862348"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.6518218623482"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.2550607287449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,9 +1410,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3967611336032"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1133603238866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6558704453441"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5384615384615"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1502,8 +1506,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.080971659919"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2226720647773"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,40 +1556,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4534412955466"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.5101214574899"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3967611336032"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1133603238866"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6518218623482"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.3684210526316"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.7408906882591"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.5384615384615"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.3967611336032"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.1983805668016"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1093117408907"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.0526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.48582995951417"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="10.8542510121457"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="18.3967611336032"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="25.8218623481781"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="16.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.22672064777328"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3684210526316"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6558704453441"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5384615384615"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0242914979757"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.9676113360324"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8825910931174"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5384615384615"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.0526315789474"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.2550607287449"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.9676113360324"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.82591093117409"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="11.6558704453441"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.251012145749"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.7651821862348"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="27.6518218623482"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.2550607287449"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,7 +2519,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>5</v>
       </c>
@@ -4675,7 +4681,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>14</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>15</v>
       </c>
@@ -4864,7 +4870,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z35"/>
+  <autoFilter ref="A1:Z35">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="Cat_2"/>
+        <filter val="Cat_1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="22">
+      <filters>
+        <filter val="Scene_type_3"/>
+        <filter val="Scene_type_2"/>
+        <filter val="Scene_type_1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Tests/Data/test_case_data.xlsx
+++ b/Projects/CCRU/Tests/Data/test_case_data.xlsx
@@ -15,12 +15,12 @@
     <sheet name="scif" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$Z$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$Z$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$Z$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$Z$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">scif!$A$1:$Z$35</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$35</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$Z$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$Z$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
   <si>
     <t xml:space="preserve">product_fk</t>
   </si>
@@ -289,13 +289,13 @@
     <t xml:space="preserve">facings</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
@@ -430,8 +430,8 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -601,7 +601,7 @@
         <v>23</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>24</v>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>24</v>
@@ -1060,7 +1060,7 @@
         <v>23</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>24</v>
@@ -1556,13 +1556,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="S3" s="0" t="n">
         <f aca="false">VLOOKUP($D3,products!$A$2:$P$16,15,0)</f>
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="T3" s="0" t="str">
         <f aca="false">VLOOKUP($D3,products!$A$2:$P$16,16,0)</f>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="S5" s="0" t="n">
         <f aca="false">VLOOKUP($D5,products!$A$2:$P$16,15,0)</f>
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="T5" s="0" t="str">
         <f aca="false">VLOOKUP($D5,products!$A$2:$P$16,16,0)</f>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -2519,9 +2519,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="S13" s="0" t="n">
         <f aca="false">VLOOKUP($D13,products!$A$2:$P$16,15,0)</f>
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="T13" s="0" t="str">
         <f aca="false">VLOOKUP($D13,products!$A$2:$P$16,16,0)</f>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="S20" s="0" t="n">
         <f aca="false">VLOOKUP($D20,products!$A$2:$P$16,15,0)</f>
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="T20" s="0" t="str">
         <f aca="false">VLOOKUP($D20,products!$A$2:$P$16,16,0)</f>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2</v>
@@ -3555,36 +3555,36 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" s="0" t="str">
         <f aca="false">VLOOKUP(D22,products!$A$2:$P$16,2,0)</f>
-        <v>Product_111_11_01</v>
+        <v>Product_211_32_15</v>
       </c>
       <c r="J22" s="0" t="str">
         <f aca="false">VLOOKUP(D22,products!$A$2:$P$16,3,0)</f>
-        <v>111_11_01</v>
+        <v>211_32_15</v>
       </c>
       <c r="K22" s="0" t="str">
         <f aca="false">VLOOKUP(D22,products!$A$2:$P$16,4,0)</f>
@@ -3592,11 +3592,11 @@
       </c>
       <c r="L22" s="0" t="str">
         <f aca="false">VLOOKUP($D22,products!$A$2:$P$16,8,0)</f>
-        <v>Brand_11</v>
+        <v>Brand_21</v>
       </c>
       <c r="M22" s="0" t="str">
         <f aca="false">VLOOKUP($D22,products!$A$2:$P$16,6,0)</f>
-        <v>TCCC</v>
+        <v>Man_2</v>
       </c>
       <c r="N22" s="0" t="n">
         <f aca="false">VLOOKUP($D22,products!$A$2:$P$16,10,0)</f>
@@ -3604,23 +3604,23 @@
       </c>
       <c r="O22" s="0" t="str">
         <f aca="false">VLOOKUP($D22,products!$A$2:$P$16,11,0)</f>
-        <v>Cat_1</v>
+        <v>Cat_3</v>
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">D22</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="0" t="str">
         <f aca="false">VLOOKUP($D22,products!$A$2:$P$16,13,0)</f>
-        <v>SubCat_11</v>
+        <v>SubCat_32</v>
       </c>
       <c r="R22" s="0" t="str">
         <f aca="false">VLOOKUP($D22,products!$A$2:$P$16,14,0)</f>
-        <v>FF_1</v>
+        <v>FF_3</v>
       </c>
       <c r="S22" s="0" t="n">
         <f aca="false">VLOOKUP($D22,products!$A$2:$P$16,15,0)</f>
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="T22" s="0" t="str">
         <f aca="false">VLOOKUP($D22,products!$A$2:$P$16,16,0)</f>
@@ -3628,11 +3628,11 @@
       </c>
       <c r="U22" s="0" t="str">
         <f aca="false">VLOOKUP($D22,products!$A$2:$P$16,8,0)</f>
-        <v>Brand_11</v>
+        <v>Brand_21</v>
       </c>
       <c r="V22" s="0" t="str">
         <f aca="false">VLOOKUP($D22,products!$A$2:$P$16,9,0)</f>
-        <v>SubBrand_111</v>
+        <v>SubBrand_211</v>
       </c>
       <c r="W22" s="0" t="s">
         <v>65</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -3658,10 +3658,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>3</v>
@@ -3674,11 +3674,11 @@
       </c>
       <c r="I23" s="0" t="str">
         <f aca="false">VLOOKUP(D23,products!$A$2:$P$16,2,0)</f>
-        <v>Product_111_11_02</v>
+        <v>Product_111_11_01</v>
       </c>
       <c r="J23" s="0" t="str">
         <f aca="false">VLOOKUP(D23,products!$A$2:$P$16,3,0)</f>
-        <v>111_11_02</v>
+        <v>111_11_01</v>
       </c>
       <c r="K23" s="0" t="str">
         <f aca="false">VLOOKUP(D23,products!$A$2:$P$16,4,0)</f>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="P23" s="0" t="n">
         <f aca="false">D23</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="0" t="str">
         <f aca="false">VLOOKUP($D23,products!$A$2:$P$16,13,0)</f>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="S23" s="0" t="n">
         <f aca="false">VLOOKUP($D23,products!$A$2:$P$16,15,0)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T23" s="0" t="str">
         <f aca="false">VLOOKUP($D23,products!$A$2:$P$16,16,0)</f>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
@@ -3752,10 +3752,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>3</v>
@@ -3768,11 +3768,11 @@
       </c>
       <c r="I24" s="0" t="str">
         <f aca="false">VLOOKUP(D24,products!$A$2:$P$16,2,0)</f>
-        <v>Product_121_13_05</v>
+        <v>Product_111_11_02</v>
       </c>
       <c r="J24" s="0" t="str">
         <f aca="false">VLOOKUP(D24,products!$A$2:$P$16,3,0)</f>
-        <v>121_13_05</v>
+        <v>111_11_02</v>
       </c>
       <c r="K24" s="0" t="str">
         <f aca="false">VLOOKUP(D24,products!$A$2:$P$16,4,0)</f>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="L24" s="0" t="str">
         <f aca="false">VLOOKUP($D24,products!$A$2:$P$16,8,0)</f>
-        <v>Brand_12</v>
+        <v>Brand_11</v>
       </c>
       <c r="M24" s="0" t="str">
         <f aca="false">VLOOKUP($D24,products!$A$2:$P$16,6,0)</f>
@@ -3796,11 +3796,11 @@
       </c>
       <c r="P24" s="0" t="n">
         <f aca="false">D24</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="0" t="str">
         <f aca="false">VLOOKUP($D24,products!$A$2:$P$16,13,0)</f>
-        <v>SubCat_13</v>
+        <v>SubCat_11</v>
       </c>
       <c r="R24" s="0" t="str">
         <f aca="false">VLOOKUP($D24,products!$A$2:$P$16,14,0)</f>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="S24" s="0" t="n">
         <f aca="false">VLOOKUP($D24,products!$A$2:$P$16,15,0)</f>
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="T24" s="0" t="str">
         <f aca="false">VLOOKUP($D24,products!$A$2:$P$16,16,0)</f>
@@ -3816,11 +3816,11 @@
       </c>
       <c r="U24" s="0" t="str">
         <f aca="false">VLOOKUP($D24,products!$A$2:$P$16,8,0)</f>
-        <v>Brand_12</v>
+        <v>Brand_11</v>
       </c>
       <c r="V24" s="0" t="str">
         <f aca="false">VLOOKUP($D24,products!$A$2:$P$16,9,0)</f>
-        <v>SubBrand_121</v>
+        <v>SubBrand_111</v>
       </c>
       <c r="W24" s="0" t="s">
         <v>65</v>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
@@ -3846,10 +3846,10 @@
         <v>3</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>3</v>
@@ -3862,11 +3862,11 @@
       </c>
       <c r="I25" s="0" t="str">
         <f aca="false">VLOOKUP(D25,products!$A$2:$P$16,2,0)</f>
-        <v>Product_121_13_06</v>
+        <v>Product_121_13_05</v>
       </c>
       <c r="J25" s="0" t="str">
         <f aca="false">VLOOKUP(D25,products!$A$2:$P$16,3,0)</f>
-        <v>121_13_06</v>
+        <v>121_13_05</v>
       </c>
       <c r="K25" s="0" t="str">
         <f aca="false">VLOOKUP(D25,products!$A$2:$P$16,4,0)</f>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="P25" s="0" t="n">
         <f aca="false">D25</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q25" s="0" t="str">
         <f aca="false">VLOOKUP($D25,products!$A$2:$P$16,13,0)</f>
@@ -3931,7 +3931,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -3940,10 +3940,10 @@
         <v>3</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>3</v>
@@ -3956,11 +3956,11 @@
       </c>
       <c r="I26" s="0" t="str">
         <f aca="false">VLOOKUP(D26,products!$A$2:$P$16,2,0)</f>
-        <v>Product_121_21_07</v>
+        <v>Product_121_13_06</v>
       </c>
       <c r="J26" s="0" t="str">
         <f aca="false">VLOOKUP(D26,products!$A$2:$P$16,3,0)</f>
-        <v>121_21_07</v>
+        <v>121_13_06</v>
       </c>
       <c r="K26" s="0" t="str">
         <f aca="false">VLOOKUP(D26,products!$A$2:$P$16,4,0)</f>
@@ -3980,23 +3980,23 @@
       </c>
       <c r="O26" s="0" t="str">
         <f aca="false">VLOOKUP($D26,products!$A$2:$P$16,11,0)</f>
-        <v>Cat_2</v>
+        <v>Cat_1</v>
       </c>
       <c r="P26" s="0" t="n">
         <f aca="false">D26</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q26" s="0" t="str">
         <f aca="false">VLOOKUP($D26,products!$A$2:$P$16,13,0)</f>
-        <v>SubCat_21</v>
+        <v>SubCat_13</v>
       </c>
       <c r="R26" s="0" t="str">
         <f aca="false">VLOOKUP($D26,products!$A$2:$P$16,14,0)</f>
-        <v>FF_2</v>
+        <v>FF_1</v>
       </c>
       <c r="S26" s="0" t="n">
         <f aca="false">VLOOKUP($D26,products!$A$2:$P$16,15,0)</f>
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="T26" s="0" t="str">
         <f aca="false">VLOOKUP($D26,products!$A$2:$P$16,16,0)</f>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
@@ -4034,10 +4034,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>12</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>3</v>
@@ -4050,11 +4050,11 @@
       </c>
       <c r="I27" s="0" t="str">
         <f aca="false">VLOOKUP(D27,products!$A$2:$P$16,2,0)</f>
-        <v>Product_122_21_08</v>
+        <v>Product_121_21_07</v>
       </c>
       <c r="J27" s="0" t="str">
         <f aca="false">VLOOKUP(D27,products!$A$2:$P$16,3,0)</f>
-        <v>122_21_08</v>
+        <v>121_21_07</v>
       </c>
       <c r="K27" s="0" t="str">
         <f aca="false">VLOOKUP(D27,products!$A$2:$P$16,4,0)</f>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="P27" s="0" t="n">
         <f aca="false">D27</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q27" s="0" t="str">
         <f aca="false">VLOOKUP($D27,products!$A$2:$P$16,13,0)</f>
@@ -4086,11 +4086,11 @@
       </c>
       <c r="R27" s="0" t="str">
         <f aca="false">VLOOKUP($D27,products!$A$2:$P$16,14,0)</f>
-        <v>FF_1</v>
+        <v>FF_2</v>
       </c>
       <c r="S27" s="0" t="n">
         <f aca="false">VLOOKUP($D27,products!$A$2:$P$16,15,0)</f>
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="T27" s="0" t="str">
         <f aca="false">VLOOKUP($D27,products!$A$2:$P$16,16,0)</f>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="V27" s="0" t="str">
         <f aca="false">VLOOKUP($D27,products!$A$2:$P$16,9,0)</f>
-        <v>SubBrand_122</v>
+        <v>SubBrand_121</v>
       </c>
       <c r="W27" s="0" t="s">
         <v>65</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -4128,10 +4128,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>3</v>
@@ -4144,11 +4144,11 @@
       </c>
       <c r="I28" s="0" t="str">
         <f aca="false">VLOOKUP(D28,products!$A$2:$P$16,2,0)</f>
-        <v>Product_122_22_09</v>
+        <v>Product_122_21_08</v>
       </c>
       <c r="J28" s="0" t="str">
         <f aca="false">VLOOKUP(D28,products!$A$2:$P$16,3,0)</f>
-        <v>122_22_09</v>
+        <v>122_21_08</v>
       </c>
       <c r="K28" s="0" t="str">
         <f aca="false">VLOOKUP(D28,products!$A$2:$P$16,4,0)</f>
@@ -4172,11 +4172,11 @@
       </c>
       <c r="P28" s="0" t="n">
         <f aca="false">D28</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q28" s="0" t="str">
         <f aca="false">VLOOKUP($D28,products!$A$2:$P$16,13,0)</f>
-        <v>SubCat_22</v>
+        <v>SubCat_21</v>
       </c>
       <c r="R28" s="0" t="str">
         <f aca="false">VLOOKUP($D28,products!$A$2:$P$16,14,0)</f>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -4222,10 +4222,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>3</v>
@@ -4238,11 +4238,11 @@
       </c>
       <c r="I29" s="0" t="str">
         <f aca="false">VLOOKUP(D29,products!$A$2:$P$16,2,0)</f>
-        <v>Product_122_22_10</v>
+        <v>Product_122_22_09</v>
       </c>
       <c r="J29" s="0" t="str">
         <f aca="false">VLOOKUP(D29,products!$A$2:$P$16,3,0)</f>
-        <v>122_22_10</v>
+        <v>122_22_09</v>
       </c>
       <c r="K29" s="0" t="str">
         <f aca="false">VLOOKUP(D29,products!$A$2:$P$16,4,0)</f>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="P29" s="0" t="n">
         <f aca="false">D29</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q29" s="0" t="str">
         <f aca="false">VLOOKUP($D29,products!$A$2:$P$16,13,0)</f>
@@ -4274,11 +4274,11 @@
       </c>
       <c r="R29" s="0" t="str">
         <f aca="false">VLOOKUP($D29,products!$A$2:$P$16,14,0)</f>
-        <v>FF_3</v>
+        <v>FF_1</v>
       </c>
       <c r="S29" s="0" t="n">
         <f aca="false">VLOOKUP($D29,products!$A$2:$P$16,15,0)</f>
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="T29" s="0" t="str">
         <f aca="false">VLOOKUP($D29,products!$A$2:$P$16,16,0)</f>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -4316,10 +4316,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>3</v>
@@ -4332,11 +4332,11 @@
       </c>
       <c r="I30" s="0" t="str">
         <f aca="false">VLOOKUP(D30,products!$A$2:$P$16,2,0)</f>
-        <v>Product_113_23_11</v>
+        <v>Product_122_22_10</v>
       </c>
       <c r="J30" s="0" t="str">
         <f aca="false">VLOOKUP(D30,products!$A$2:$P$16,3,0)</f>
-        <v>113_23_11</v>
+        <v>122_22_10</v>
       </c>
       <c r="K30" s="0" t="str">
         <f aca="false">VLOOKUP(D30,products!$A$2:$P$16,4,0)</f>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="L30" s="0" t="str">
         <f aca="false">VLOOKUP($D30,products!$A$2:$P$16,8,0)</f>
-        <v>Brand_11</v>
+        <v>Brand_12</v>
       </c>
       <c r="M30" s="0" t="str">
         <f aca="false">VLOOKUP($D30,products!$A$2:$P$16,6,0)</f>
@@ -4360,19 +4360,19 @@
       </c>
       <c r="P30" s="0" t="n">
         <f aca="false">D30</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="0" t="str">
         <f aca="false">VLOOKUP($D30,products!$A$2:$P$16,13,0)</f>
-        <v>SubCat_23</v>
+        <v>SubCat_22</v>
       </c>
       <c r="R30" s="0" t="str">
         <f aca="false">VLOOKUP($D30,products!$A$2:$P$16,14,0)</f>
-        <v>FF_1</v>
+        <v>FF_3</v>
       </c>
       <c r="S30" s="0" t="n">
         <f aca="false">VLOOKUP($D30,products!$A$2:$P$16,15,0)</f>
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="T30" s="0" t="str">
         <f aca="false">VLOOKUP($D30,products!$A$2:$P$16,16,0)</f>
@@ -4380,11 +4380,11 @@
       </c>
       <c r="U30" s="0" t="str">
         <f aca="false">VLOOKUP($D30,products!$A$2:$P$16,8,0)</f>
-        <v>Brand_11</v>
+        <v>Brand_12</v>
       </c>
       <c r="V30" s="0" t="str">
         <f aca="false">VLOOKUP($D30,products!$A$2:$P$16,9,0)</f>
-        <v>SubBrand_113</v>
+        <v>SubBrand_122</v>
       </c>
       <c r="W30" s="0" t="s">
         <v>65</v>
@@ -4401,36 +4401,36 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" s="0" t="n">
+      <c r="E31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="G31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" s="0" t="str">
         <f aca="false">VLOOKUP(D31,products!$A$2:$P$16,2,0)</f>
-        <v>Product_112_12_03</v>
+        <v>Product_113_23_11</v>
       </c>
       <c r="J31" s="0" t="str">
         <f aca="false">VLOOKUP(D31,products!$A$2:$P$16,3,0)</f>
-        <v>112_12_03</v>
+        <v>113_23_11</v>
       </c>
       <c r="K31" s="0" t="str">
         <f aca="false">VLOOKUP(D31,products!$A$2:$P$16,4,0)</f>
@@ -4450,23 +4450,23 @@
       </c>
       <c r="O31" s="0" t="str">
         <f aca="false">VLOOKUP($D31,products!$A$2:$P$16,11,0)</f>
-        <v>Cat_1</v>
+        <v>Cat_2</v>
       </c>
       <c r="P31" s="0" t="n">
         <f aca="false">D31</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="0" t="str">
         <f aca="false">VLOOKUP($D31,products!$A$2:$P$16,13,0)</f>
-        <v>SubCat_12</v>
+        <v>SubCat_23</v>
       </c>
       <c r="R31" s="0" t="str">
         <f aca="false">VLOOKUP($D31,products!$A$2:$P$16,14,0)</f>
-        <v>FF_2</v>
+        <v>FF_1</v>
       </c>
       <c r="S31" s="0" t="n">
         <f aca="false">VLOOKUP($D31,products!$A$2:$P$16,15,0)</f>
-        <v>0.33</v>
+        <v>0.9</v>
       </c>
       <c r="T31" s="0" t="str">
         <f aca="false">VLOOKUP($D31,products!$A$2:$P$16,16,0)</f>
@@ -4478,24 +4478,24 @@
       </c>
       <c r="V31" s="0" t="str">
         <f aca="false">VLOOKUP($D31,products!$A$2:$P$16,9,0)</f>
-        <v>SubBrand_112</v>
+        <v>SubBrand_113</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y31" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Z31" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -4504,10 +4504,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>4</v>
@@ -4520,11 +4520,11 @@
       </c>
       <c r="I32" s="0" t="str">
         <f aca="false">VLOOKUP(D32,products!$A$2:$P$16,2,0)</f>
-        <v>Product_112_12_04</v>
+        <v>Product_112_12_03</v>
       </c>
       <c r="J32" s="0" t="str">
         <f aca="false">VLOOKUP(D32,products!$A$2:$P$16,3,0)</f>
-        <v>112_12_04</v>
+        <v>112_12_03</v>
       </c>
       <c r="K32" s="0" t="str">
         <f aca="false">VLOOKUP(D32,products!$A$2:$P$16,4,0)</f>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="P32" s="0" t="n">
         <f aca="false">D32</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="0" t="str">
         <f aca="false">VLOOKUP($D32,products!$A$2:$P$16,13,0)</f>
@@ -4556,11 +4556,11 @@
       </c>
       <c r="R32" s="0" t="str">
         <f aca="false">VLOOKUP($D32,products!$A$2:$P$16,14,0)</f>
-        <v>FF_1</v>
+        <v>FF_2</v>
       </c>
       <c r="S32" s="0" t="n">
         <f aca="false">VLOOKUP($D32,products!$A$2:$P$16,15,0)</f>
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="T32" s="0" t="str">
         <f aca="false">VLOOKUP($D32,products!$A$2:$P$16,16,0)</f>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
@@ -4598,10 +4598,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>4</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>4</v>
@@ -4614,11 +4614,11 @@
       </c>
       <c r="I33" s="0" t="str">
         <f aca="false">VLOOKUP(D33,products!$A$2:$P$16,2,0)</f>
-        <v>Product_121_13_05</v>
+        <v>Product_112_12_04</v>
       </c>
       <c r="J33" s="0" t="str">
         <f aca="false">VLOOKUP(D33,products!$A$2:$P$16,3,0)</f>
-        <v>121_13_05</v>
+        <v>112_12_04</v>
       </c>
       <c r="K33" s="0" t="str">
         <f aca="false">VLOOKUP(D33,products!$A$2:$P$16,4,0)</f>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="L33" s="0" t="str">
         <f aca="false">VLOOKUP($D33,products!$A$2:$P$16,8,0)</f>
-        <v>Brand_12</v>
+        <v>Brand_11</v>
       </c>
       <c r="M33" s="0" t="str">
         <f aca="false">VLOOKUP($D33,products!$A$2:$P$16,6,0)</f>
@@ -4642,11 +4642,11 @@
       </c>
       <c r="P33" s="0" t="n">
         <f aca="false">D33</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q33" s="0" t="str">
         <f aca="false">VLOOKUP($D33,products!$A$2:$P$16,13,0)</f>
-        <v>SubCat_13</v>
+        <v>SubCat_12</v>
       </c>
       <c r="R33" s="0" t="str">
         <f aca="false">VLOOKUP($D33,products!$A$2:$P$16,14,0)</f>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="S33" s="0" t="n">
         <f aca="false">VLOOKUP($D33,products!$A$2:$P$16,15,0)</f>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="T33" s="0" t="str">
         <f aca="false">VLOOKUP($D33,products!$A$2:$P$16,16,0)</f>
@@ -4662,11 +4662,11 @@
       </c>
       <c r="U33" s="0" t="str">
         <f aca="false">VLOOKUP($D33,products!$A$2:$P$16,8,0)</f>
-        <v>Brand_12</v>
+        <v>Brand_11</v>
       </c>
       <c r="V33" s="0" t="str">
         <f aca="false">VLOOKUP($D33,products!$A$2:$P$16,9,0)</f>
-        <v>SubBrand_121</v>
+        <v>SubBrand_112</v>
       </c>
       <c r="W33" s="0" t="s">
         <v>66</v>
@@ -4681,38 +4681,38 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="E34" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I34" s="0" t="str">
         <f aca="false">VLOOKUP(D34,products!$A$2:$P$16,2,0)</f>
-        <v>Product_122_21_08</v>
+        <v>Product_121_13_05</v>
       </c>
       <c r="J34" s="0" t="str">
         <f aca="false">VLOOKUP(D34,products!$A$2:$P$16,3,0)</f>
-        <v>122_21_08</v>
+        <v>121_13_05</v>
       </c>
       <c r="K34" s="0" t="str">
         <f aca="false">VLOOKUP(D34,products!$A$2:$P$16,4,0)</f>
@@ -4732,15 +4732,15 @@
       </c>
       <c r="O34" s="0" t="str">
         <f aca="false">VLOOKUP($D34,products!$A$2:$P$16,11,0)</f>
-        <v>Cat_2</v>
+        <v>Cat_1</v>
       </c>
       <c r="P34" s="0" t="n">
         <f aca="false">D34</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q34" s="0" t="str">
         <f aca="false">VLOOKUP($D34,products!$A$2:$P$16,13,0)</f>
-        <v>SubCat_21</v>
+        <v>SubCat_13</v>
       </c>
       <c r="R34" s="0" t="str">
         <f aca="false">VLOOKUP($D34,products!$A$2:$P$16,14,0)</f>
@@ -4760,24 +4760,24 @@
       </c>
       <c r="V34" s="0" t="str">
         <f aca="false">VLOOKUP($D34,products!$A$2:$P$16,9,0)</f>
-        <v>SubBrand_122</v>
+        <v>SubBrand_121</v>
       </c>
       <c r="W34" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y34" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z34" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -4786,10 +4786,10 @@
         <v>5</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>5</v>
@@ -4802,11 +4802,11 @@
       </c>
       <c r="I35" s="0" t="str">
         <f aca="false">VLOOKUP(D35,products!$A$2:$P$16,2,0)</f>
-        <v>Product_122_22_09</v>
+        <v>Product_122_21_08</v>
       </c>
       <c r="J35" s="0" t="str">
         <f aca="false">VLOOKUP(D35,products!$A$2:$P$16,3,0)</f>
-        <v>122_22_09</v>
+        <v>122_21_08</v>
       </c>
       <c r="K35" s="0" t="str">
         <f aca="false">VLOOKUP(D35,products!$A$2:$P$16,4,0)</f>
@@ -4830,11 +4830,11 @@
       </c>
       <c r="P35" s="0" t="n">
         <f aca="false">D35</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q35" s="0" t="str">
         <f aca="false">VLOOKUP($D35,products!$A$2:$P$16,13,0)</f>
-        <v>SubCat_22</v>
+        <v>SubCat_21</v>
       </c>
       <c r="R35" s="0" t="str">
         <f aca="false">VLOOKUP($D35,products!$A$2:$P$16,14,0)</f>
@@ -4869,22 +4869,102 @@
         <v>67</v>
       </c>
     </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="0" t="str">
+        <f aca="false">VLOOKUP(D36,products!$A$2:$P$16,2,0)</f>
+        <v>Product_122_22_09</v>
+      </c>
+      <c r="J36" s="0" t="str">
+        <f aca="false">VLOOKUP(D36,products!$A$2:$P$16,3,0)</f>
+        <v>122_22_09</v>
+      </c>
+      <c r="K36" s="0" t="str">
+        <f aca="false">VLOOKUP(D36,products!$A$2:$P$16,4,0)</f>
+        <v>SKU</v>
+      </c>
+      <c r="L36" s="0" t="str">
+        <f aca="false">VLOOKUP($D36,products!$A$2:$P$16,8,0)</f>
+        <v>Brand_12</v>
+      </c>
+      <c r="M36" s="0" t="str">
+        <f aca="false">VLOOKUP($D36,products!$A$2:$P$16,6,0)</f>
+        <v>TCCC</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <f aca="false">VLOOKUP($D36,products!$A$2:$P$16,10,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O36" s="0" t="str">
+        <f aca="false">VLOOKUP($D36,products!$A$2:$P$16,11,0)</f>
+        <v>Cat_2</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <f aca="false">D36</f>
+        <v>9</v>
+      </c>
+      <c r="Q36" s="0" t="str">
+        <f aca="false">VLOOKUP($D36,products!$A$2:$P$16,13,0)</f>
+        <v>SubCat_22</v>
+      </c>
+      <c r="R36" s="0" t="str">
+        <f aca="false">VLOOKUP($D36,products!$A$2:$P$16,14,0)</f>
+        <v>FF_1</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <f aca="false">VLOOKUP($D36,products!$A$2:$P$16,15,0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T36" s="0" t="str">
+        <f aca="false">VLOOKUP($D36,products!$A$2:$P$16,16,0)</f>
+        <v>l</v>
+      </c>
+      <c r="U36" s="0" t="str">
+        <f aca="false">VLOOKUP($D36,products!$A$2:$P$16,8,0)</f>
+        <v>Brand_12</v>
+      </c>
+      <c r="V36" s="0" t="str">
+        <f aca="false">VLOOKUP($D36,products!$A$2:$P$16,9,0)</f>
+        <v>SubBrand_122</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="X36" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z36" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Z35">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="Cat_2"/>
-        <filter val="Cat_1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="22">
-      <filters>
-        <filter val="Scene_type_3"/>
-        <filter val="Scene_type_2"/>
-        <filter val="Scene_type_1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z36"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Tests/Data/test_case_data.xlsx
+++ b/Projects/CCRU/Tests/Data/test_case_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -289,13 +290,13 @@
     <t xml:space="preserve">facings</t>
   </si>
   <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
@@ -436,23 +437,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9676113360324"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6558704453441"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.8825910931174"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.5384615384615"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.9109311740891"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.2550607287449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.9676113360324"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.82591093117409"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6558704453441"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9676113360324"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.6801619433198"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3967611336032"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6234817813765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.080971659919"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4534412955466"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.0242914979757"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.6801619433198"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9109311740891"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.5101214574899"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.1093117408907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.17004048582996"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,16 +1290,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5384615384615"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="27.6518218623482"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.2550607287449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6801619433198"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="29.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5101214574899"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1404,16 +1405,16 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6558704453441"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5384615384615"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0242914979757"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4534412955466"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6801619433198"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9392712550607"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>72</v>
@@ -1465,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>74</v>
@@ -1476,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>75</v>
@@ -1506,9 +1507,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,36 +1562,36 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.22672064777328"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3684210526316"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3117408906883"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6558704453441"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5384615384615"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.9676113360324"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.8825910931174"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5384615384615"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.0526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.2550607287449"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.9676113360324"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.82591093117409"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="11.6558704453441"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="27.6518218623482"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.2550607287449"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.45748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1133603238866"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.6801619433198"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9392712550607"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.6234817813765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.6801619433198"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.3967611336032"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.0242914979757"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.080971659919"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.6801619433198"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9109311740891"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.9676113360324"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.5101214574899"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1093117408907"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.17004048582996"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="12.4534412955466"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.251012145749"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="29.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="18.5101214574899"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Tests/Data/test_case_data.xlsx
+++ b/Projects/CCRU/Tests/Data/test_case_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,8 @@
     <sheet name="scenes_info" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="store_areas" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="scif" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="kpi_level_2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="kpi_result_values" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$Z$36</definedName>
@@ -22,6 +24,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="128">
   <si>
     <t xml:space="preserve">product_fk</t>
   </si>
@@ -309,6 +312,114 @@
   </si>
   <si>
     <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpi_level_1_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpi_family_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerator_type_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denominator_type_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpi_score_type_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpi_result_type_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid_until</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initiated_by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context_type_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpi_calculation_stage_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session_relevance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scene_relevance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planogram_relevance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">live_session_relevance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">live_scene_relevance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpi_target_type_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpi_class_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPSKU_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSA Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPSKU_CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSA Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPSKU_BUNDLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSA Bundle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPSKU_SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSA SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTRIBUTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTRA</t>
   </si>
 </sst>
 </file>
@@ -431,29 +542,29 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9676113360324"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6234817813765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.6801619433198"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3967611336032"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6234817813765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.080971659919"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4534412955466"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9109311740891"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.5101214574899"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.1093117408907"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.17004048582996"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.4534412955466"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1093117408907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5101214574899"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7651821862348"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3684210526316"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.9392712550607"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.8259109311741"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.1093117408907"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8825910931174"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.2550607287449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.62753036437247"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.3684210526316"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,11 +1406,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="29.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5101214574899"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9392712550607"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="31.8785425101215"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,16 +1516,16 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4534412955466"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9392712550607"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3684210526316"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9392712550607"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,9 +1618,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3076923076923"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6518218623482"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,30 +1679,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.45748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1133603238866"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9392712550607"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.6234817813765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.6801619433198"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.3967611336032"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.0242914979757"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.080971659919"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.9109311740891"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.9676113360324"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.5101214574899"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1093117408907"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.17004048582996"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="12.4534412955466"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.251012145749"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="29.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="18.5101214574899"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.68421052631579"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3684210526316"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.9392712550607"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.336032388664"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.5101214574899"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.7651821862348"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.9392712550607"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.8259109311741"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1093117408907"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.8825910931174"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.2550607287449"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.62753036437247"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="13.3684210526316"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="31.8785425101215"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4975,4 +5086,402 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:X5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.15789473684211"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8623481781377"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.2672064777328"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.0323886639676"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0607287449393"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.91902834008097"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.2388663967611"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.7692307692308"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.6801619433198"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.3522267206478"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.3238866396761"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.9757085020243"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.0607287449393"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.4453441295547"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9473684210526"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Projects/CCRU/Tests/Data/test_case_data.xlsx
+++ b/Projects/CCRU/Tests/Data/test_case_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,9 @@
     <sheet name="scif" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="kpi_level_2" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="kpi_result_values" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="kpi_entity_types" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="group_names" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="osa_kpi_results" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">scif!$A$1:$Z$36</definedName>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="228">
   <si>
     <t xml:space="preserve">product_fk</t>
   </si>
@@ -410,6 +413,12 @@
     <t xml:space="preserve">OSA SKU</t>
   </si>
   <si>
+    <t xml:space="preserve">OSA_MANUFACTURER_OUT_OF_CAT_CUSTOM_MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity</t>
+  </si>
+  <si>
     <t xml:space="preserve">value</t>
   </si>
   <si>
@@ -420,6 +429,324 @@
   </si>
   <si>
     <t xml:space="preserve">EXTRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uid_field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static_new.product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static_new.brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static_new.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static_new.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static.stores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static.template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static_new.sub_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static.kpi_level_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales_rep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static.sales_reps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connected_shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static.connected_shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static.regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static.retailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static.planogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display_definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static.display_definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top_sku_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pservice.group_names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top_sku_bundle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probedata.scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static.custom_entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promo_product_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_by_ean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUNDLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session_result_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session_parent_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should_enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifier_parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifier_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scene_result_fk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 1.0, 'set': 'TOPSKU', 'level': 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 1.0, 'set': 'TOPSKU', 'level': 3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '1.0', NULL, '1', '4', '1', NULL, '0', '5.0', '1', '6.0', NULL, '0', '0', '100', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 2.0, 'set': 'TOPSKU', 'level': 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 2.0, 'set': 'TOPSKU', 'level': 3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '2.0', NULL, '1', '4', '1', NULL, '0', '5.0', '2', '1.0', NULL, '0', '100', '100', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 4.0, 'set': 'TOPSKU', 'level': 3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '4.0', NULL, '2', '4', '1', NULL, '0', '20.0', '2', '1.0', NULL, '0', '100', '100', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 3.0, 'set': 'TOPSKU', 'level': 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 3.0, 'set': 'TOPSKU', 'level': 3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '3.0', NULL, '1', '4', '1', NULL, '0', '21.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 5.0, 'set': 'TOPSKU', 'level': 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 5.0, 'set': 'TOPSKU', 'level': 3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '5.0', NULL, '1', '4', '1', NULL, '0', '13.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 11.0, 'set': 'TOPSKU', 'level': 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 11.0, 'set': 'TOPSKU', 'level': 3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '11.0', NULL, '1', '4', '1', NULL, '0', '13.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 12.0, 'set': 'TOPSKU', 'level': 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 12.0, 'set': 'TOPSKU', 'level': 3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '12.0', NULL, '1', '4', '1', NULL, '0', '11.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 7.0, 'set': 'TOPSKU', 'level': 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 7.0, 'set': 'TOPSKU', 'level': 3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '7.0', NULL, '1', '4', '1', NULL, '0', '18.0', '2', '1.0', NULL, '0', '100', '100', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 8.0, 'set': 'TOPSKU', 'level': 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 8.0, 'set': 'TOPSKU', 'level': 3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '8.0', NULL, '1', '4', '1', NULL, '0', '22.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 9.0, 'set': 'TOPSKU', 'level': 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 9.0, 'set': 'TOPSKU', 'level': 3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '9.0', NULL, '1', '4', '1', NULL, '0', '14.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 10.0, 'set': 'TOPSKU', 'level': 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 10.0, 'set': 'TOPSKU', 'level': 3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '10.0', NULL, '1', '4', '1', NULL, '0', '8.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 1, 'set': 'TOPSKU', 'level': 1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '1.0', NULL, '1', '3', '1', NULL, '0', '5.0', '1', NULL, '1', '0', '0', '100', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '2.0', NULL, '2', '3', '1', NULL, '0', '25.0', '2', '2', '2', '0', '100', '100', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '3.0', NULL, '3', '3', '1', NULL, '0', '21.0', '3', NULL, '1', '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '5.0', NULL, '4', '3', '1', NULL, '0', '13.0', '3', NULL, '1', '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '7.0', NULL, '1', '3', '1', NULL, '0', '18.0', '2', NULL, '1', '0', '100', '100', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '11.0', NULL, '2', '3', '1', NULL, '0', '13.0', '3', NULL, '1', '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '12.0', NULL, '3', '3', '1', NULL, '0', '11.0', '3', NULL, '1', '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '8.0', NULL, '4', '3', '1', NULL, '0', '22.0', '3', NULL, '1', '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '9.0', NULL, '5', '3', '1', NULL, '0', '14.0', '3', NULL, '1', '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '10.0', NULL, '6', '3', '1', NULL, '0', '8.0', '3', NULL, '1', '0', '100', '0', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'kpi': 'TOPSKU', 'set': 'TOPSKU', 'level': 0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '1', NULL, '1', '2', '1', NULL, '0', '1.0', '50.0', '2.0', NULL, '0', '50.0', '100', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '1', NULL, '2', '2', '1', NULL, '0', '1.0', '100.0', '1.0', NULL, '0', '100.0', '100', NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
+           VALUES (NULL, '1', '1', '1', '1', '1', NULL, '0', '2.0', '66.67', '3.0', NULL, '0', '66.67', '100', NULL)</t>
   </si>
 </sst>
 </file>
@@ -510,13 +837,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1393,6 +1728,485 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -5093,10 +5907,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -5401,6 +6215,53 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5420,7 +6281,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -5436,7 +6297,7 @@
         <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>100</v>
@@ -5447,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -5458,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -5469,10 +6330,377 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>999</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.582995951417"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Tests/Data/test_case_data.xlsx
+++ b/Projects/CCRU/Tests/Data/test_case_data.xlsx
@@ -28,6 +28,8 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -584,114 +586,114 @@
     <t xml:space="preserve">query</t>
   </si>
   <si>
-    <t xml:space="preserve">{'kpi': 1.0, 'set': 'TOPSKU', 'level': 2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'kpi': 1.0, 'set': 'TOPSKU', 'level': 3}</t>
+    <t xml:space="preserve">{"kpi": 1.0, "set": "TOPSKU", "level": 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"kpi": 1.0, "set": "TOPSKU", "level": 3}</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
            VALUES (NULL, '1.0', NULL, '1', '4', '1', NULL, '0', '5.0', '1', '6.0', NULL, '0', '0', '100', NULL)</t>
   </si>
   <si>
-    <t xml:space="preserve">{'kpi': 2.0, 'set': 'TOPSKU', 'level': 2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'kpi': 2.0, 'set': 'TOPSKU', 'level': 3}</t>
+    <t xml:space="preserve">{"kpi": 2.0, "set": "TOPSKU", "level": 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"kpi": 2.0, "set": "TOPSKU", "level": 3}</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
            VALUES (NULL, '2.0', NULL, '1', '4', '1', NULL, '0', '5.0', '2', '1.0', NULL, '0', '100', '100', NULL)</t>
   </si>
   <si>
-    <t xml:space="preserve">{'kpi': 4.0, 'set': 'TOPSKU', 'level': 3}</t>
+    <t xml:space="preserve">{"kpi": 4.0, "set": "TOPSKU", "level": 3}</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
            VALUES (NULL, '4.0', NULL, '2', '4', '1', NULL, '0', '20.0', '2', '1.0', NULL, '0', '100', '100', NULL)</t>
   </si>
   <si>
-    <t xml:space="preserve">{'kpi': 3.0, 'set': 'TOPSKU', 'level': 2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'kpi': 3.0, 'set': 'TOPSKU', 'level': 3}</t>
+    <t xml:space="preserve">{"kpi": 3.0, "set": "TOPSKU", "level": 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"kpi": 3.0, "set": "TOPSKU", "level": 3}</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
            VALUES (NULL, '3.0', NULL, '1', '4', '1', NULL, '0', '21.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
   </si>
   <si>
-    <t xml:space="preserve">{'kpi': 5.0, 'set': 'TOPSKU', 'level': 2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'kpi': 5.0, 'set': 'TOPSKU', 'level': 3}</t>
+    <t xml:space="preserve">{"kpi": 5.0, "set": "TOPSKU", "level": 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"kpi": 5.0, "set": "TOPSKU", "level": 3}</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
            VALUES (NULL, '5.0', NULL, '1', '4', '1', NULL, '0', '13.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
   </si>
   <si>
-    <t xml:space="preserve">{'kpi': 11.0, 'set': 'TOPSKU', 'level': 2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'kpi': 11.0, 'set': 'TOPSKU', 'level': 3}</t>
+    <t xml:space="preserve">{"kpi": 11.0, "set": "TOPSKU", "level": 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"kpi": 11.0, "set": "TOPSKU", "level": 3}</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
            VALUES (NULL, '11.0', NULL, '1', '4', '1', NULL, '0', '13.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
   </si>
   <si>
-    <t xml:space="preserve">{'kpi': 12.0, 'set': 'TOPSKU', 'level': 2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'kpi': 12.0, 'set': 'TOPSKU', 'level': 3}</t>
+    <t xml:space="preserve">{"kpi": 12.0, "set": "TOPSKU", "level": 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"kpi": 12.0, "set": "TOPSKU", "level": 3}</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
            VALUES (NULL, '12.0', NULL, '1', '4', '1', NULL, '0', '11.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
   </si>
   <si>
-    <t xml:space="preserve">{'kpi': 7.0, 'set': 'TOPSKU', 'level': 2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'kpi': 7.0, 'set': 'TOPSKU', 'level': 3}</t>
+    <t xml:space="preserve">{"kpi": 7.0, "set": "TOPSKU", "level": 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"kpi": 7.0, "set": "TOPSKU", "level": 3}</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
            VALUES (NULL, '7.0', NULL, '1', '4', '1', NULL, '0', '18.0', '2', '1.0', NULL, '0', '100', '100', NULL)</t>
   </si>
   <si>
-    <t xml:space="preserve">{'kpi': 8.0, 'set': 'TOPSKU', 'level': 2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'kpi': 8.0, 'set': 'TOPSKU', 'level': 3}</t>
+    <t xml:space="preserve">{"kpi": 8.0, "set": "TOPSKU", "level": 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"kpi": 8.0, "set": "TOPSKU", "level": 3}</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
            VALUES (NULL, '8.0', NULL, '1', '4', '1', NULL, '0', '22.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
   </si>
   <si>
-    <t xml:space="preserve">{'kpi': 9.0, 'set': 'TOPSKU', 'level': 2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'kpi': 9.0, 'set': 'TOPSKU', 'level': 3}</t>
+    <t xml:space="preserve">{"kpi": 9.0, "set": "TOPSKU", "level": 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"kpi": 9.0, "set": "TOPSKU", "level": 3}</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
            VALUES (NULL, '9.0', NULL, '1', '4', '1', NULL, '0', '14.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
   </si>
   <si>
-    <t xml:space="preserve">{'kpi': 10.0, 'set': 'TOPSKU', 'level': 2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'kpi': 10.0, 'set': 'TOPSKU', 'level': 3}</t>
+    <t xml:space="preserve">{"kpi": 10.0, "set": "TOPSKU", "level": 2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"kpi": 10.0, "set": "TOPSKU", "level": 3}</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
            VALUES (NULL, '10.0', NULL, '1', '4', '1', NULL, '0', '8.0', '3', '0.0', NULL, '0', '100', '0', NULL)</t>
   </si>
   <si>
-    <t xml:space="preserve">{'kpi': 1, 'set': 'TOPSKU', 'level': 1}</t>
+    <t xml:space="preserve">{"kpi": 1, "set": "TOPSKU", "level": 1}</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
@@ -734,7 +736,7 @@
            VALUES (NULL, '10.0', NULL, '6', '3', '1', NULL, '0', '8.0', '3', NULL, '1', '0', '100', '0', NULL)</t>
   </si>
   <si>
-    <t xml:space="preserve">{'kpi': 'TOPSKU', 'set': 'TOPSKU', 'level': 0}</t>
+    <t xml:space="preserve">{"kpi": "TOPSKU", "set": "TOPSKU", "level": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
@@ -837,17 +839,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -878,28 +876,27 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="2" sqref="D2:D24 E2:E25 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1093117408907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5101214574899"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3684210526316"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.9392712550607"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.8259109311741"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.1093117408907"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8825910931174"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.2550607287449"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.62753036437247"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.3684210526316"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5101214574899"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1093117408907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.7368421052632"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.1093117408907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.336032388664"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6801619433198"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.8825910931174"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.7651821862348"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.9676113360324"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.8825910931174"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.65587044534413"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,12 +1733,12 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="2" sqref="D2:D24 E2:E25 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,7 +1768,7 @@
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1781,7 +1778,7 @@
       <c r="E2" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1789,7 +1786,7 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1799,7 +1796,7 @@
       <c r="E3" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1807,7 +1804,7 @@
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1817,7 +1814,7 @@
       <c r="E4" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1825,7 +1822,7 @@
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1835,7 +1832,7 @@
       <c r="E5" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1843,7 +1840,7 @@
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1853,7 +1850,7 @@
       <c r="E6" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1861,7 +1858,7 @@
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1871,7 +1868,7 @@
       <c r="E7" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1879,7 +1876,7 @@
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1889,7 +1886,7 @@
       <c r="E8" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1897,7 +1894,7 @@
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1907,7 +1904,7 @@
       <c r="E9" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>203</v>
       </c>
     </row>
@@ -1915,7 +1912,7 @@
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1925,7 +1922,7 @@
       <c r="E10" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1933,7 +1930,7 @@
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1943,7 +1940,7 @@
       <c r="E11" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -1951,7 +1948,7 @@
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1961,7 +1958,7 @@
       <c r="E12" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1969,7 +1966,7 @@
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1979,7 +1976,7 @@
       <c r="E13" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>214</v>
       </c>
     </row>
@@ -1987,7 +1984,7 @@
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1997,7 +1994,7 @@
       <c r="E14" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2005,7 +2002,7 @@
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2015,7 +2012,7 @@
       <c r="E15" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2023,7 +2020,7 @@
       <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2033,7 +2030,7 @@
       <c r="E16" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2041,7 +2038,7 @@
       <c r="A17" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2051,7 +2048,7 @@
       <c r="E17" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2059,7 +2056,7 @@
       <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2069,7 +2066,7 @@
       <c r="E18" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2077,7 +2074,7 @@
       <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2087,7 +2084,7 @@
       <c r="E19" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2095,7 +2092,7 @@
       <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2105,7 +2102,7 @@
       <c r="E20" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2113,7 +2110,7 @@
       <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2123,7 +2120,7 @@
       <c r="E21" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2131,7 +2128,7 @@
       <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2141,7 +2138,7 @@
       <c r="E22" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2149,7 +2146,7 @@
       <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2159,7 +2156,7 @@
       <c r="E23" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2167,7 +2164,7 @@
       <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2177,22 +2174,22 @@
       <c r="E24" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="25.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2215,16 +2212,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="2" sqref="D2:D24 E2:E25 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9392712550607"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="31.8785425101215"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8825910931174"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6801619433198"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.9068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9676113360324"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,15 +2327,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="2" sqref="D2:D24 E2:E25 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3684210526316"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9392712550607"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6801619433198"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2427,14 +2422,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="2" sqref="D2:D24 E2:E25 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6518218623482"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0242914979757"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3076923076923"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,35 +2482,34 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="2" sqref="D2:D24 E2:E25 H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.68421052631579"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.1983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3684210526316"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.9392712550607"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.336032388664"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.5101214574899"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.9392712550607"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.8259109311741"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1093117408907"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.8825910931174"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.2550607287449"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="6.62753036437247"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="13.3684210526316"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="31.8785425101215"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.8825910931174"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.25506072874494"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8259109311741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="12.9109311740891"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6801619433198"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.1093117408907"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.7368421052632"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.7368421052632"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.6801619433198"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.8825910931174"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.5101214574899"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.9676113360324"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.8825910931174"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.65587044534413"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="28.336032388664"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="26.2793522267206"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="36.9068825910931"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.9676113360324"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5910,35 +5903,35 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D2:D24 E2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.15789473684211"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8623481781377"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1255060728745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.2672064777328"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.0323886639676"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0607287449393"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.91902834008097"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.2388663967611"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.7692307692308"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.3522267206478"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.3238866396761"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.0323886639676"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.9757085020243"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.0607287449393"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="13.4453441295547"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.54251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5951417004049"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0242914979757"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9392712550607"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.79757085020243"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.8825910931174"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.9392712550607"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6234817813765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.080971659919"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6558704453441"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="12.9109311740891"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.0242914979757"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="24.9068825910931"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.1943319838057"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.5951417004049"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.4251012145749"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="21.9392712550607"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.6518218623482"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6558704453441"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="15.5384615384615"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6281,15 +6274,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="D2:D24 E2:E25 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9473684210526"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.080971659919"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6355,15 +6348,15 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D2:D24 E2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.080971659919"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9392712550607"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6661,14 +6654,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="D2:D24 E2:E25 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.582995951417"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9392712550607"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Tests/Data/test_case_data.xlsx
+++ b/Projects/CCRU/Tests/Data/test_case_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,6 +30,8 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">scif!$A$1:$Z$36</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -748,7 +750,7 @@
   </si>
   <si>
     <t xml:space="preserve">INSERT INTO report.kpi_level_2_results (parent_fk, numerator_id, denominator_id, weight, kpi_level_2_fk, session_fk, denominator_result_after_actions, numerator_result_after_actions, numerator_result, result, denominator_result, context_id, score_after_actions, score, target, kpi_level_2_target_fk)
-           VALUES (NULL, '1', '1', '1', '1', '1', NULL, '0', '2.0', '66.67', '3.0', NULL, '0', '66.67', '100', NULL)</t>
+           VALUES (NULL, '1', '1', '1', '1', '1', NULL, '0', '2.0', '66.667', '3.0', NULL, '0', '66.667', '100', NULL)</t>
   </si>
 </sst>
 </file>
@@ -876,27 +878,28 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="2" sqref="D2:D24 E2:E25 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5101214574899"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1093117408907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.7368421052632"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.1093117408907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.336032388664"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6801619433198"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.8825910931174"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.7651821862348"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.9676113360324"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.8825910931174"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.65587044534413"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3684210526316"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6477732793522"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.9635627530364"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.8259109311741"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.6801619433198"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.7651821862348"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="31.9919028340081"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.5101214574899"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.9676113360324"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.79757085020243"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8259109311741"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,13 +1735,13 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="2" sqref="D2:D24 E2:E25 E1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="135.627530364372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,15 +2215,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="2" sqref="D2:D24 E2:E25 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6801619433198"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.9068825910931"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9676113360324"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7651821862348"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3927125506073"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="42.6194331983806"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5101214574899"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,14 +2331,15 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="2" sqref="D2:D24 E2:E25 C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6801619433198"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8259109311741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7651821862348"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,13 +2427,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="2" sqref="D2:D24 E2:E25 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3076923076923"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4777327935223"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,34 +2488,35 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="2" sqref="D2:D24 E2:E25 H12"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.25506072874494"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8259109311741"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="12.9109311740891"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6801619433198"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.1093117408907"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.7368421052632"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.7368421052632"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.1376518218623"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.6801619433198"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.8825910931174"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.5101214574899"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.9676113360324"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.8825910931174"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.65587044534413"/>
-    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="28.336032388664"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="26.2793522267206"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="36.9068825910931"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.9676113360324"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.94331983805668"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="14.7408906882591"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8259109311741"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.7651821862348"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7651821862348"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.336032388664"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.6477732793522"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.2793522267206"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.336032388664"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.9635627530364"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.7651821862348"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.3684210526316"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="26.5101214574899"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.9676113360324"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.79757085020243"/>
+    <col collapsed="false" hidden="false" max="21" min="20" style="0" width="17.8259109311741"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="32.6801619433198"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="30.3927125506073"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="42.6194331983806"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="26.5101214574899"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,35 +5910,34 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D2:D24 E2:E25"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.54251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7408906882591"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5951417004049"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9392712550607"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.79757085020243"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.8825910931174"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.9392712550607"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6234817813765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.080971659919"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6558704453441"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="12.9109311740891"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.0242914979757"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="24.9068825910931"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.1943319838057"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.5951417004049"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.4251012145749"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="21.9392712550607"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.6518218623482"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6558704453441"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="15.5384615384615"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.2226720647773"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.93927125506073"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9676113360324"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.4817813765182"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.0526315789474"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.3684210526316"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.1417004048583"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="14.7408906882591"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6518218623482"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.7935222672065"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.165991902834"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.2226720647773"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.8218623481781"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="26.9635627530364"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="25.251012145749"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.6234817813765"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="13.3684210526316"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.9392712550607"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6274,15 +6280,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="D2:D24 E2:E25 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.080971659919"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3967611336032"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6348,15 +6352,13 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D2:D24 E2:E25"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.080971659919"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.9392712550607"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0526315789474"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,14 +6656,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="D2:D24 E2:E25 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9392712550607"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6801619433198"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
